--- a/data/trans_orig/P42B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B566792E-D3C0-47EC-9B47-DD8376172EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9050FB5B-28EF-4817-A332-75510E49C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B212574B-5EB6-4042-93DF-0BAF617D90E7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78570AEF-E789-48B8-8C71-6D004A7CC195}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="433">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -98,10 +98,10 @@
     <t>65,09%</t>
   </si>
   <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>Para realizar orientación/planificación familiar</t>
@@ -110,10 +110,10 @@
     <t>9,86%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
   </si>
   <si>
     <t>Por algún problema ginecológico</t>
@@ -122,10 +122,10 @@
     <t>25,05%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,40 +140,40 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,11%</t>
+    <t>4,66%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>5,01%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -182,1174 +182,1162 @@
     <t>1,09%</t>
   </si>
   <si>
-    <t>3,79%</t>
+    <t>3,42%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>4,14%</t>
+    <t>4,13%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
     <t>4,05%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378DE159-8A7E-422D-B8A1-FFF3C0B4DEB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1E2EFE-AEF2-496F-A2C3-C9F31E3CC457}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2836,10 +2824,10 @@
         <v>58</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -2851,10 +2839,10 @@
         <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,7 +2896,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2933,13 +2921,13 @@
         <v>976</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2948,13 +2936,13 @@
         <v>976</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2970,13 @@
         <v>4023</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2997,13 +2985,13 @@
         <v>4023</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3019,13 @@
         <v>8126</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -3046,13 +3034,13 @@
         <v>8126</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3068,13 @@
         <v>108235</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>104</v>
@@ -3095,13 +3083,13 @@
         <v>108235</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3117,13 @@
         <v>2877</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3144,13 +3132,13 @@
         <v>2877</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3178,13 +3166,13 @@
         <v>17625</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -3193,13 +3181,13 @@
         <v>17625</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,7 +3241,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3284,7 +3272,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3299,7 +3287,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3315,13 @@
         <v>3726</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="L33" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -3342,13 +3330,13 @@
         <v>3726</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,10 +3367,10 @@
         <v>42</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -3394,10 +3382,10 @@
         <v>42</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3413,13 @@
         <v>63803</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M35" s="7">
         <v>63</v>
@@ -3440,13 +3428,13 @@
         <v>63803</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3480,7 +3468,7 @@
         <v>13</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3495,7 +3483,7 @@
         <v>13</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3511,13 @@
         <v>4792</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -3538,13 +3526,13 @@
         <v>4792</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,10 +4106,10 @@
         <v>113</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M49" s="7">
         <v>474</v>
@@ -4133,10 +4121,10 @@
         <v>113</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4152,13 @@
         <v>30820</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M50" s="7">
         <v>27</v>
@@ -4179,13 +4167,13 @@
         <v>30820</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4201,13 @@
         <v>92098</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M51" s="7">
         <v>91</v>
@@ -4228,13 +4216,13 @@
         <v>92098</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4276,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B832819E-2A4E-42F1-8CC3-B3EE4C5E78F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8700FC8C-75EE-4B6D-BF75-058A257861B1}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4327,7 +4315,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4447,13 +4435,13 @@
         <v>3968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4462,13 +4450,13 @@
         <v>3968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +4490,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4517,7 +4505,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4533,13 @@
         <v>978</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4560,13 +4548,13 @@
         <v>978</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4582,13 @@
         <v>136998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>133</v>
@@ -4609,13 +4597,13 @@
         <v>136998</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4631,13 @@
         <v>24561</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -4658,13 +4646,13 @@
         <v>24561</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4680,13 @@
         <v>64939</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -4707,13 +4695,13 @@
         <v>64939</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4780,13 @@
         <v>9171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -4807,13 +4795,13 @@
         <v>9171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4829,13 @@
         <v>3847</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4856,13 +4844,13 @@
         <v>3847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4878,13 @@
         <v>3948</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4905,13 +4893,13 @@
         <v>3948</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4927,13 @@
         <v>341066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>317</v>
@@ -4954,13 +4942,13 @@
         <v>341066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4976,13 @@
         <v>59538</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M15" s="7">
         <v>54</v>
@@ -5003,13 +4991,13 @@
         <v>59538</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5025,13 @@
         <v>75719</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -5052,13 +5040,13 @@
         <v>75719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5125,13 @@
         <v>12292</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5152,13 +5140,13 @@
         <v>12292</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5174,13 @@
         <v>4533</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5201,13 +5189,13 @@
         <v>4533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5223,13 @@
         <v>6049</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5250,13 +5238,13 @@
         <v>6049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5272,13 @@
         <v>464311</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M21" s="7">
         <v>433</v>
@@ -5299,13 +5287,13 @@
         <v>464311</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5321,13 @@
         <v>50491</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5348,13 +5336,13 @@
         <v>50491</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5370,13 @@
         <v>81186</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -5397,13 +5385,13 @@
         <v>81186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,7 +5445,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5482,13 +5470,13 @@
         <v>2119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5497,13 +5485,13 @@
         <v>2119</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5519,13 @@
         <v>3104</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5546,13 +5534,13 @@
         <v>3104</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5568,13 @@
         <v>12198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -5595,13 +5583,13 @@
         <v>12198</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5617,13 @@
         <v>425366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>369</v>
@@ -5644,13 +5632,13 @@
         <v>425366</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5666,13 @@
         <v>13195</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -5693,13 +5681,13 @@
         <v>13195</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5715,13 @@
         <v>81452</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M30" s="7">
         <v>73</v>
@@ -5742,13 +5730,13 @@
         <v>81452</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5802,7 +5790,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5827,13 +5815,13 @@
         <v>9040</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -5842,13 +5830,13 @@
         <v>9040</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5864,13 @@
         <v>2082</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -5891,13 +5879,13 @@
         <v>2082</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5913,13 @@
         <v>7638</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -5940,13 +5928,13 @@
         <v>7638</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +5962,13 @@
         <v>305800</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M35" s="7">
         <v>275</v>
@@ -5989,13 +5977,13 @@
         <v>305800</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6011,13 @@
         <v>6515</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -6038,13 +6026,13 @@
         <v>6515</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6060,13 @@
         <v>60070</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M37" s="7">
         <v>56</v>
@@ -6087,13 +6075,13 @@
         <v>60070</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6160,13 @@
         <v>7141</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -6187,13 +6175,13 @@
         <v>7141</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6209,13 @@
         <v>11530</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M40" s="7">
         <v>11</v>
@@ -6236,13 +6224,13 @@
         <v>11530</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6258,13 @@
         <v>12158</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M41" s="7">
         <v>12</v>
@@ -6285,13 +6273,13 @@
         <v>12158</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6307,13 @@
         <v>302184</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M42" s="7">
         <v>283</v>
@@ -6334,13 +6322,13 @@
         <v>302184</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6356,13 @@
         <v>7386</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -6383,13 +6371,13 @@
         <v>7386</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6405,13 @@
         <v>127695</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M44" s="7">
         <v>120</v>
@@ -6432,13 +6420,13 @@
         <v>127695</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6505,13 @@
         <v>43730</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M46" s="7">
         <v>41</v>
@@ -6532,13 +6520,13 @@
         <v>43730</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6554,13 @@
         <v>25095</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M47" s="7">
         <v>24</v>
@@ -6581,13 +6569,13 @@
         <v>25095</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6603,13 @@
         <v>42969</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M48" s="7">
         <v>39</v>
@@ -6630,13 +6618,13 @@
         <v>42969</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,13 +6652,13 @@
         <v>1975725</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M49" s="7">
         <v>1810</v>
@@ -6679,13 +6667,13 @@
         <v>1975725</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,7 +6701,7 @@
         <v>161686</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>226</v>
@@ -6728,7 +6716,7 @@
         <v>161686</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>226</v>
@@ -6837,7 +6825,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -6859,7 +6847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02AB49A-F25F-46A9-A0FF-7A0284183F75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49FF14B-EA8F-4463-A083-4AB3AF3B2459}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7097,10 +7085,10 @@
         <v>236</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -7112,10 +7100,10 @@
         <v>236</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,10 +7332,10 @@
         <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -7359,10 +7347,10 @@
         <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,13 +7378,13 @@
         <v>5767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7405,13 +7393,13 @@
         <v>5767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7427,13 @@
         <v>2689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7454,13 +7442,13 @@
         <v>2689</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7476,13 @@
         <v>348940</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
@@ -7503,13 +7491,13 @@
         <v>348940</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +7525,13 @@
         <v>46352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -7552,13 +7540,13 @@
         <v>46352</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +7574,13 @@
         <v>43336</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -7601,13 +7589,13 @@
         <v>43336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7674,13 @@
         <v>15357</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -7701,13 +7689,13 @@
         <v>15357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,7 +7723,7 @@
         <v>1907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
@@ -7750,7 +7738,7 @@
         <v>1907</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
@@ -7784,13 +7772,13 @@
         <v>8762</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7799,13 +7787,13 @@
         <v>8762</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,13 +7821,13 @@
         <v>441638</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M21" s="7">
         <v>445</v>
@@ -7848,13 +7836,13 @@
         <v>441638</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,13 +7870,13 @@
         <v>44514</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -7897,13 +7885,13 @@
         <v>44514</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7919,13 @@
         <v>74659</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -7946,13 +7934,13 @@
         <v>74659</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8006,7 +7994,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8031,13 +8019,13 @@
         <v>5723</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -8046,13 +8034,13 @@
         <v>5723</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8068,13 @@
         <v>3102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8095,13 +8083,13 @@
         <v>3102</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>281</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8117,13 @@
         <v>15975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -8144,13 +8132,13 @@
         <v>15975</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8166,13 @@
         <v>462093</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M28" s="7">
         <v>426</v>
@@ -8193,13 +8181,13 @@
         <v>462093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,13 +8215,13 @@
         <v>12460</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8242,13 +8230,13 @@
         <v>12460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8264,13 @@
         <v>74888</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M30" s="7">
         <v>71</v>
@@ -8291,13 +8279,13 @@
         <v>74888</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,7 +8339,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8376,10 +8364,10 @@
         <v>9507</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>293</v>
@@ -8391,10 +8379,10 @@
         <v>9507</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>293</v>
@@ -8425,13 +8413,13 @@
         <v>3199</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>294</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>295</v>
+        <v>107</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -8440,13 +8428,13 @@
         <v>3199</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>294</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8474,13 +8462,13 @@
         <v>25299</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -8489,13 +8477,13 @@
         <v>25299</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8523,13 +8511,13 @@
         <v>327026</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M35" s="7">
         <v>283</v>
@@ -8538,13 +8526,13 @@
         <v>327026</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,13 +8560,13 @@
         <v>10791</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -8587,13 +8575,13 @@
         <v>10791</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8609,13 @@
         <v>60982</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M37" s="7">
         <v>54</v>
@@ -8636,13 +8624,13 @@
         <v>60982</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8721,13 +8709,13 @@
         <v>12179</v>
       </c>
       <c r="J39" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M39" s="7">
         <v>10</v>
@@ -8736,13 +8724,13 @@
         <v>12179</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8905,13 @@
         <v>7839</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -8932,13 +8920,13 @@
         <v>7839</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8966,13 +8954,13 @@
         <v>86278</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M44" s="7">
         <v>76</v>
@@ -8981,13 +8969,13 @@
         <v>86278</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,10 +9054,10 @@
         <v>70309</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>322</v>
@@ -9081,10 +9069,10 @@
         <v>70309</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>322</v>
@@ -9115,10 +9103,10 @@
         <v>15082</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>323</v>
@@ -9130,10 +9118,10 @@
         <v>15082</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>323</v>
@@ -9164,13 +9152,13 @@
         <v>88776</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M48" s="7">
         <v>81</v>
@@ -9179,13 +9167,13 @@
         <v>88776</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,13 +9201,13 @@
         <v>2079768</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M49" s="7">
         <v>1956</v>
@@ -9228,13 +9216,13 @@
         <v>2079768</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9262,13 +9250,13 @@
         <v>147136</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M50" s="7">
         <v>146</v>
@@ -9277,13 +9265,13 @@
         <v>147136</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9311,13 +9299,13 @@
         <v>379385</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M51" s="7">
         <v>362</v>
@@ -9326,13 +9314,13 @@
         <v>379385</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9386,7 +9374,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -9408,7 +9396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1AACE7-3CE3-43A8-807E-734D288D7971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925E4632-2471-4965-A67B-A4BBEBB78F55}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9425,7 +9413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9545,13 +9533,13 @@
         <v>16581</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -9560,13 +9548,13 @@
         <v>16581</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9600,7 +9588,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9615,7 +9603,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9649,7 +9637,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9664,7 +9652,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9692,13 +9680,13 @@
         <v>51380</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -9707,13 +9695,13 @@
         <v>51380</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9741,13 +9729,13 @@
         <v>5561</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -9756,13 +9744,13 @@
         <v>5561</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9790,13 +9778,13 @@
         <v>30053</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -9805,13 +9793,13 @@
         <v>30053</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9890,13 +9878,13 @@
         <v>14767</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -9905,13 +9893,13 @@
         <v>14767</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9939,13 +9927,13 @@
         <v>2531</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -9954,13 +9942,13 @@
         <v>2531</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10135,13 +10123,13 @@
         <v>33074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -10150,13 +10138,13 @@
         <v>33074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10235,13 +10223,13 @@
         <v>25309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -10250,13 +10238,13 @@
         <v>25309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10284,13 +10272,13 @@
         <v>1835</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>160</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -10299,13 +10287,13 @@
         <v>1835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10333,13 +10321,13 @@
         <v>1960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>368</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -10348,13 +10336,13 @@
         <v>1960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10382,13 +10370,13 @@
         <v>228405</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M21" s="7">
         <v>338</v>
@@ -10397,13 +10385,13 @@
         <v>228405</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10431,13 +10419,13 @@
         <v>22205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -10446,13 +10434,13 @@
         <v>22205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>227</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10480,13 +10468,13 @@
         <v>46419</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -10495,13 +10483,13 @@
         <v>46419</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10555,7 +10543,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -10580,13 +10568,13 @@
         <v>22226</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -10595,13 +10583,13 @@
         <v>22226</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10629,13 +10617,13 @@
         <v>3255</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>266</v>
+        <v>382</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -10644,13 +10632,13 @@
         <v>3255</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>266</v>
+        <v>382</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>380</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10678,13 +10666,13 @@
         <v>8575</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -10693,13 +10681,13 @@
         <v>8575</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10727,13 +10715,13 @@
         <v>336408</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M28" s="7">
         <v>537</v>
@@ -10742,13 +10730,13 @@
         <v>336408</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10776,13 +10764,13 @@
         <v>10663</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -10791,13 +10779,13 @@
         <v>10663</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10825,13 +10813,13 @@
         <v>82668</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
@@ -10840,13 +10828,13 @@
         <v>82668</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10900,7 +10888,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10925,13 +10913,13 @@
         <v>21875</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>297</v>
+        <v>395</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -10940,13 +10928,13 @@
         <v>21875</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>297</v>
+        <v>395</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10974,13 +10962,13 @@
         <v>3427</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -10989,13 +10977,13 @@
         <v>3427</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11023,13 +11011,13 @@
         <v>13348</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>397</v>
+        <v>176</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>398</v>
+        <v>248</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -11038,13 +11026,13 @@
         <v>13348</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>397</v>
+        <v>176</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>398</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11124,10 +11112,10 @@
         <v>402</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>403</v>
+        <v>291</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -11139,10 +11127,10 @@
         <v>402</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>403</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11170,13 +11158,13 @@
         <v>63014</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -11185,13 +11173,13 @@
         <v>63014</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11270,13 +11258,13 @@
         <v>29546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M39" s="7">
         <v>50</v>
@@ -11285,13 +11273,13 @@
         <v>29546</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>124</v>
+        <v>296</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11319,13 +11307,13 @@
         <v>1820</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>394</v>
+        <v>144</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -11334,13 +11322,13 @@
         <v>1820</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>394</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11368,13 +11356,13 @@
         <v>50499</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>411</v>
+        <v>43</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>412</v>
+        <v>171</v>
       </c>
       <c r="M41" s="7">
         <v>88</v>
@@ -11383,13 +11371,13 @@
         <v>50499</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>411</v>
+        <v>43</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>412</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11417,13 +11405,13 @@
         <v>396552</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M42" s="7">
         <v>760</v>
@@ -11432,13 +11420,13 @@
         <v>396552</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11466,13 +11454,13 @@
         <v>5034</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>126</v>
+        <v>413</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="M43" s="7">
         <v>9</v>
@@ -11481,13 +11469,13 @@
         <v>5034</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>126</v>
+        <v>413</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11515,13 +11503,13 @@
         <v>84887</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M44" s="7">
         <v>150</v>
@@ -11530,13 +11518,13 @@
         <v>84887</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11615,13 +11603,13 @@
         <v>130305</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M46" s="7">
         <v>164</v>
@@ -11630,13 +11618,13 @@
         <v>130305</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11664,13 +11652,13 @@
         <v>12868</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>426</v>
+        <v>161</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -11679,13 +11667,13 @@
         <v>12868</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>426</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11713,13 +11701,13 @@
         <v>74381</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M48" s="7">
         <v>126</v>
@@ -11728,13 +11716,13 @@
         <v>74381</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>427</v>
+        <v>390</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11762,13 +11750,13 @@
         <v>1476396</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M49" s="7">
         <v>2316</v>
@@ -11777,13 +11765,13 @@
         <v>1476396</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11811,13 +11799,13 @@
         <v>64691</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>124</v>
+        <v>430</v>
       </c>
       <c r="M50" s="7">
         <v>76</v>
@@ -11826,13 +11814,13 @@
         <v>64691</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>124</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11860,13 +11848,13 @@
         <v>340115</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M51" s="7">
         <v>463</v>
@@ -11875,13 +11863,13 @@
         <v>340115</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -11935,7 +11923,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9050FB5B-28EF-4817-A332-75510E49C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{079A31AA-6E09-4FF4-B586-C6D715613559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{78570AEF-E789-48B8-8C71-6D004A7CC195}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59ED5095-3CD8-4154-BF5D-B761CC1A2140}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="437">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -98,10 +98,10 @@
     <t>65,09%</t>
   </si>
   <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>Para realizar orientación/planificación familiar</t>
@@ -110,10 +110,10 @@
     <t>9,86%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>Por algún problema ginecológico</t>
@@ -122,10 +122,10 @@
     <t>25,05%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1134 +140,1152 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>4,66%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
     <t>5,01%</t>
   </si>
   <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
   </si>
   <si>
     <t>7,34%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
     <t>69,77%</t>
   </si>
   <si>
@@ -1313,9 +1331,6 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
     <t>70,35%</t>
   </si>
   <si>
@@ -1323,9 +1338,6 @@
   </si>
   <si>
     <t>72,25%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
   </si>
   <si>
     <t>2,45%</t>
@@ -1749,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1E2EFE-AEF2-496F-A2C3-C9F31E3CC457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBDABF1-9663-4CBD-AE0A-9F9E524AA172}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2824,10 +2836,10 @@
         <v>58</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -2839,10 +2851,10 @@
         <v>58</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,7 +2908,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2921,13 +2933,13 @@
         <v>976</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -2936,13 +2948,13 @@
         <v>976</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2982,13 @@
         <v>4023</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -2985,13 +2997,13 @@
         <v>4023</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3031,13 @@
         <v>8126</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -3034,13 +3046,13 @@
         <v>8126</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3080,13 @@
         <v>108235</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M28" s="7">
         <v>104</v>
@@ -3083,13 +3095,13 @@
         <v>108235</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3129,13 @@
         <v>2877</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -3132,13 +3144,13 @@
         <v>2877</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3178,13 @@
         <v>17625</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -3181,13 +3193,13 @@
         <v>17625</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3253,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3272,7 +3284,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3287,7 +3299,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,10 +3327,10 @@
         <v>3726</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>81</v>
@@ -3330,10 +3342,10 @@
         <v>3726</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>81</v>
@@ -3468,7 +3480,7 @@
         <v>13</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3483,7 +3495,7 @@
         <v>13</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8700FC8C-75EE-4B6D-BF75-058A257861B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D386B5-74C6-4AC0-8D81-5425EA8C4A05}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4438,10 +4450,10 @@
         <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4453,10 +4465,10 @@
         <v>124</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,10 +4893,10 @@
         <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4896,10 +4908,10 @@
         <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4939,13 @@
         <v>341066</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>317</v>
@@ -4942,13 +4954,13 @@
         <v>341066</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4988,13 @@
         <v>59538</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M15" s="7">
         <v>54</v>
@@ -4991,13 +5003,13 @@
         <v>59538</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5037,13 @@
         <v>75719</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -5040,13 +5052,13 @@
         <v>75719</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,7 +5083,7 @@
         <v>460</v>
       </c>
       <c r="I17" s="7">
-        <v>493288</v>
+        <v>493289</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>29</v>
@@ -5086,7 +5098,7 @@
         <v>460</v>
       </c>
       <c r="N17" s="7">
-        <v>493288</v>
+        <v>493289</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>29</v>
@@ -5125,13 +5137,13 @@
         <v>12292</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5140,13 +5152,13 @@
         <v>12292</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,7 +5241,7 @@
         <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5244,7 +5256,7 @@
         <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5284,13 @@
         <v>464311</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M21" s="7">
         <v>433</v>
@@ -5287,13 +5299,13 @@
         <v>464311</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5333,13 @@
         <v>50491</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5336,13 +5348,13 @@
         <v>50491</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5382,13 @@
         <v>81186</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -5385,13 +5397,13 @@
         <v>81186</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5445,7 +5457,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5470,13 +5482,13 @@
         <v>2119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5485,13 +5497,13 @@
         <v>2119</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,10 +5534,10 @@
         <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5537,10 +5549,10 @@
         <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,7 +5802,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -5815,7 +5827,7 @@
         <v>9040</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>188</v>
@@ -5830,7 +5842,7 @@
         <v>9040</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>188</v>
@@ -5916,10 +5928,10 @@
         <v>192</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -5931,10 +5943,10 @@
         <v>192</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,13 +5974,13 @@
         <v>305800</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M35" s="7">
         <v>275</v>
@@ -5977,13 +5989,13 @@
         <v>305800</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6023,13 @@
         <v>6515</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -6026,13 +6038,13 @@
         <v>6515</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,13 +6072,13 @@
         <v>60070</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M37" s="7">
         <v>56</v>
@@ -6075,13 +6087,13 @@
         <v>60070</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6172,13 @@
         <v>7141</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -6175,13 +6187,13 @@
         <v>7141</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,10 +6224,10 @@
         <v>182</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M40" s="7">
         <v>11</v>
@@ -6227,10 +6239,10 @@
         <v>182</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,13 +6270,13 @@
         <v>12158</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M41" s="7">
         <v>12</v>
@@ -6273,13 +6285,13 @@
         <v>12158</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6319,13 @@
         <v>302184</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M42" s="7">
         <v>283</v>
@@ -6322,13 +6334,13 @@
         <v>302184</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6356,13 +6368,13 @@
         <v>7386</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -6371,13 +6383,13 @@
         <v>7386</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6417,13 @@
         <v>127695</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M44" s="7">
         <v>120</v>
@@ -6420,13 +6432,13 @@
         <v>127695</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6505,13 +6517,13 @@
         <v>43730</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M46" s="7">
         <v>41</v>
@@ -6520,13 +6532,13 @@
         <v>43730</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6566,13 @@
         <v>25095</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M47" s="7">
         <v>24</v>
@@ -6569,13 +6581,13 @@
         <v>25095</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,13 +6615,13 @@
         <v>42969</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="M48" s="7">
         <v>39</v>
@@ -6618,13 +6630,13 @@
         <v>42969</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,13 +6664,13 @@
         <v>1975725</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M49" s="7">
         <v>1810</v>
@@ -6667,13 +6679,13 @@
         <v>1975725</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6701,13 +6713,13 @@
         <v>161686</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="M50" s="7">
         <v>150</v>
@@ -6716,13 +6728,13 @@
         <v>161686</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6750,13 +6762,13 @@
         <v>491062</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M51" s="7">
         <v>460</v>
@@ -6765,13 +6777,13 @@
         <v>491062</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -6847,7 +6859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49FF14B-EA8F-4463-A083-4AB3AF3B2459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8BFFBB-E066-4B37-94D8-AB4DEA223E80}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6864,7 +6876,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6984,13 +6996,13 @@
         <v>11017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -6999,13 +7011,13 @@
         <v>11017</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,7 +7051,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7054,7 +7066,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,13 +7094,13 @@
         <v>2808</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -7097,13 +7109,13 @@
         <v>2808</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,13 +7143,13 @@
         <v>139445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -7146,13 +7158,13 @@
         <v>139445</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7192,13 @@
         <v>25179</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -7195,13 +7207,13 @@
         <v>25179</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,13 +7241,13 @@
         <v>39242</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -7244,13 +7256,13 @@
         <v>39242</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7329,13 +7341,13 @@
         <v>16525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -7344,13 +7356,13 @@
         <v>16525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,13 +7390,13 @@
         <v>5767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>127</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7393,13 +7405,13 @@
         <v>5767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>106</v>
+        <v>206</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>127</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,10 +7442,10 @@
         <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7445,10 +7457,10 @@
         <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,13 +7488,13 @@
         <v>348940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
@@ -7491,13 +7503,13 @@
         <v>348940</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7537,13 @@
         <v>46352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -7540,13 +7552,13 @@
         <v>46352</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7574,13 +7586,13 @@
         <v>43336</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -7589,13 +7601,13 @@
         <v>43336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,13 +7686,13 @@
         <v>15357</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -7689,13 +7701,13 @@
         <v>15357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,13 +7735,13 @@
         <v>1907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -7738,13 +7750,13 @@
         <v>1907</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7784,13 @@
         <v>8762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7787,13 +7799,13 @@
         <v>8762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7821,13 +7833,13 @@
         <v>441638</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>445</v>
@@ -7836,13 +7848,13 @@
         <v>441638</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7870,13 +7882,13 @@
         <v>44514</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -7885,13 +7897,13 @@
         <v>44514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,13 +7931,13 @@
         <v>74659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -7934,13 +7946,13 @@
         <v>74659</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7994,7 +8006,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8019,13 +8031,13 @@
         <v>5723</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -8034,13 +8046,13 @@
         <v>5723</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>188</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8080,13 @@
         <v>3102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8083,13 +8095,13 @@
         <v>3102</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>31</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8117,13 +8129,13 @@
         <v>15975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -8132,13 +8144,13 @@
         <v>15975</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8178,13 @@
         <v>462093</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M28" s="7">
         <v>426</v>
@@ -8181,13 +8193,13 @@
         <v>462093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,13 +8227,13 @@
         <v>12460</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8230,13 +8242,13 @@
         <v>12460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>286</v>
+        <v>108</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8276,13 @@
         <v>74888</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="M30" s="7">
         <v>71</v>
@@ -8279,13 +8291,13 @@
         <v>74888</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,7 +8351,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -8364,13 +8376,13 @@
         <v>9507</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -8379,13 +8391,13 @@
         <v>9507</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8416,10 +8428,10 @@
         <v>158</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>107</v>
+        <v>301</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -8431,10 +8443,10 @@
         <v>158</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>107</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8462,13 +8474,13 @@
         <v>25299</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -8477,13 +8489,13 @@
         <v>25299</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8523,13 @@
         <v>327026</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="M35" s="7">
         <v>283</v>
@@ -8526,13 +8538,13 @@
         <v>327026</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8560,13 +8572,13 @@
         <v>10791</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -8575,13 +8587,13 @@
         <v>10791</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8609,13 +8621,13 @@
         <v>60982</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M37" s="7">
         <v>54</v>
@@ -8624,13 +8636,13 @@
         <v>60982</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8709,13 +8721,13 @@
         <v>12179</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M39" s="7">
         <v>10</v>
@@ -8724,13 +8736,13 @@
         <v>12179</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>236</v>
+        <v>315</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8758,13 +8770,13 @@
         <v>1106</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -8773,13 +8785,13 @@
         <v>1106</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8807,13 +8819,13 @@
         <v>33243</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M41" s="7">
         <v>29</v>
@@ -8822,13 +8834,13 @@
         <v>33243</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8856,13 +8868,13 @@
         <v>360626</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M42" s="7">
         <v>305</v>
@@ -8871,13 +8883,13 @@
         <v>360626</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8905,13 +8917,13 @@
         <v>7839</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>315</v>
+        <v>62</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -8920,13 +8932,13 @@
         <v>7839</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>315</v>
+        <v>62</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8954,13 +8966,13 @@
         <v>86278</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="M44" s="7">
         <v>76</v>
@@ -8969,13 +8981,13 @@
         <v>86278</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9054,13 +9066,13 @@
         <v>70309</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="M46" s="7">
         <v>67</v>
@@ -9069,13 +9081,13 @@
         <v>70309</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>321</v>
+        <v>155</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9103,13 +9115,13 @@
         <v>15082</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="M47" s="7">
         <v>15</v>
@@ -9118,13 +9130,13 @@
         <v>15082</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9152,13 +9164,13 @@
         <v>88776</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M48" s="7">
         <v>81</v>
@@ -9167,13 +9179,13 @@
         <v>88776</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9201,13 +9213,13 @@
         <v>2079768</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M49" s="7">
         <v>1956</v>
@@ -9216,13 +9228,13 @@
         <v>2079768</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9250,13 +9262,13 @@
         <v>147136</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
       <c r="M50" s="7">
         <v>146</v>
@@ -9265,13 +9277,13 @@
         <v>147136</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>331</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9299,13 +9311,13 @@
         <v>379385</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M51" s="7">
         <v>362</v>
@@ -9314,13 +9326,13 @@
         <v>379385</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9396,7 +9408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925E4632-2471-4965-A67B-A4BBEBB78F55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C191CDD-831A-4B7A-93B6-B5A2AF18D74B}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9413,7 +9425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9533,13 +9545,13 @@
         <v>16581</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -9548,13 +9560,13 @@
         <v>16581</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9588,7 +9600,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9603,7 +9615,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9637,7 +9649,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9652,7 +9664,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9680,13 +9692,13 @@
         <v>51380</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -9695,13 +9707,13 @@
         <v>51380</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9729,13 +9741,13 @@
         <v>5561</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -9744,13 +9756,13 @@
         <v>5561</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9778,13 +9790,13 @@
         <v>30053</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -9793,13 +9805,13 @@
         <v>30053</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9878,13 +9890,13 @@
         <v>14767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -9893,13 +9905,13 @@
         <v>14767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9927,13 +9939,13 @@
         <v>2531</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -9942,13 +9954,13 @@
         <v>2531</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9982,7 +9994,7 @@
         <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -9997,7 +10009,7 @@
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10025,13 +10037,13 @@
         <v>180118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>159</v>
@@ -10040,13 +10052,13 @@
         <v>180118</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10074,13 +10086,13 @@
         <v>17606</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M15" s="7">
         <v>16</v>
@@ -10089,13 +10101,13 @@
         <v>17606</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10123,13 +10135,13 @@
         <v>33074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -10138,13 +10150,13 @@
         <v>33074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10223,13 +10235,13 @@
         <v>25309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -10238,13 +10250,13 @@
         <v>25309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10272,13 +10284,13 @@
         <v>1835</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -10287,13 +10299,13 @@
         <v>1835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10321,13 +10333,13 @@
         <v>1960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -10336,13 +10348,13 @@
         <v>1960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10370,13 +10382,13 @@
         <v>228405</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M21" s="7">
         <v>338</v>
@@ -10385,13 +10397,13 @@
         <v>228405</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10419,13 +10431,13 @@
         <v>22205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>379</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -10434,13 +10446,13 @@
         <v>22205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>227</v>
+        <v>379</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10468,13 +10480,13 @@
         <v>46419</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -10483,13 +10495,13 @@
         <v>46419</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10543,7 +10555,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -10568,13 +10580,13 @@
         <v>22226</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -10583,13 +10595,13 @@
         <v>22226</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10617,13 +10629,13 @@
         <v>3255</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>382</v>
+        <v>215</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -10632,13 +10644,13 @@
         <v>3255</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>382</v>
+        <v>215</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10666,13 +10678,13 @@
         <v>8575</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>383</v>
+        <v>143</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>385</v>
+        <v>111</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -10681,13 +10693,13 @@
         <v>8575</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>383</v>
+        <v>143</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>385</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10715,13 +10727,13 @@
         <v>336408</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M28" s="7">
         <v>537</v>
@@ -10730,13 +10742,13 @@
         <v>336408</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10764,13 +10776,13 @@
         <v>10663</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -10779,13 +10791,13 @@
         <v>10663</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10813,13 +10825,13 @@
         <v>82668</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
@@ -10828,13 +10840,13 @@
         <v>82668</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10888,7 +10900,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -10913,13 +10925,13 @@
         <v>21875</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>396</v>
+        <v>249</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -10928,13 +10940,13 @@
         <v>21875</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>396</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10962,13 +10974,13 @@
         <v>3427</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -10977,13 +10989,13 @@
         <v>3427</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>323</v>
+        <v>399</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11011,13 +11023,13 @@
         <v>13348</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>398</v>
+        <v>140</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>176</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>248</v>
+        <v>402</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -11026,13 +11038,13 @@
         <v>13348</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>398</v>
+        <v>140</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>176</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>248</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11060,13 +11072,13 @@
         <v>283534</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M35" s="7">
         <v>490</v>
@@ -11075,13 +11087,13 @@
         <v>283534</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11109,13 +11121,13 @@
         <v>3622</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -11124,13 +11136,13 @@
         <v>3622</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>291</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11158,13 +11170,13 @@
         <v>63014</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -11173,13 +11185,13 @@
         <v>63014</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11258,13 +11270,13 @@
         <v>29546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M39" s="7">
         <v>50</v>
@@ -11273,13 +11285,13 @@
         <v>29546</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>296</v>
+        <v>125</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11307,10 +11319,10 @@
         <v>1820</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>144</v>
@@ -11322,10 +11334,10 @@
         <v>1820</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q40" s="7" t="s">
         <v>144</v>
@@ -11356,13 +11368,13 @@
         <v>50499</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>43</v>
+        <v>413</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>171</v>
+        <v>414</v>
       </c>
       <c r="M41" s="7">
         <v>88</v>
@@ -11371,13 +11383,13 @@
         <v>50499</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>43</v>
+        <v>413</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>171</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11405,13 +11417,13 @@
         <v>396552</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="M42" s="7">
         <v>760</v>
@@ -11420,13 +11432,13 @@
         <v>396552</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11454,13 +11466,13 @@
         <v>5034</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M43" s="7">
         <v>9</v>
@@ -11469,13 +11481,13 @@
         <v>5034</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11503,13 +11515,13 @@
         <v>84887</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="M44" s="7">
         <v>150</v>
@@ -11518,13 +11530,13 @@
         <v>84887</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11603,13 +11615,13 @@
         <v>130305</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M46" s="7">
         <v>164</v>
@@ -11618,13 +11630,13 @@
         <v>130305</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11652,10 +11664,10 @@
         <v>12868</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L47" s="7" t="s">
         <v>161</v>
@@ -11667,10 +11679,10 @@
         <v>12868</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>161</v>
@@ -11701,13 +11713,13 @@
         <v>74381</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>424</v>
+        <v>194</v>
       </c>
       <c r="M48" s="7">
         <v>126</v>
@@ -11716,13 +11728,13 @@
         <v>74381</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>424</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11750,13 +11762,13 @@
         <v>1476396</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M49" s="7">
         <v>2316</v>
@@ -11765,13 +11777,13 @@
         <v>1476396</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11799,13 +11811,13 @@
         <v>64691</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>428</v>
+        <v>205</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M50" s="7">
         <v>76</v>
@@ -11814,13 +11826,13 @@
         <v>64691</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>428</v>
+        <v>205</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11848,13 +11860,13 @@
         <v>340115</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="M51" s="7">
         <v>463</v>
@@ -11863,13 +11875,13 @@
         <v>340115</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P42B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{079A31AA-6E09-4FF4-B586-C6D715613559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E02964-FF99-45B3-82E2-2A31ED833A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{59ED5095-3CD8-4154-BF5D-B761CC1A2140}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92427F8F-8765-4537-BAF6-CA06512E6CB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -98,10 +98,10 @@
     <t>65,09%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
   </si>
   <si>
     <t>Para realizar orientación/planificación familiar</t>
@@ -110,10 +110,10 @@
     <t>9,86%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
   </si>
   <si>
     <t>Por algún problema ginecológico</t>
@@ -122,10 +122,10 @@
     <t>25,05%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,40 +140,40 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,58%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>4,9%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>12,08%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -182,1174 +182,1174 @@
     <t>1,09%</t>
   </si>
   <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
   </si>
   <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
 </sst>
 </file>
@@ -1761,7 +1761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBDABF1-9663-4CBD-AE0A-9F9E524AA172}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653052DC-C5E6-4F79-9174-183F8DF50FEA}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3330,10 +3330,10 @@
         <v>80</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M33" s="7">
         <v>4</v>
@@ -3345,10 +3345,10 @@
         <v>80</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,10 +3379,10 @@
         <v>42</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -3394,10 +3394,10 @@
         <v>42</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3425,13 @@
         <v>63803</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M35" s="7">
         <v>63</v>
@@ -3440,13 +3440,13 @@
         <v>63803</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3523,13 @@
         <v>4792</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="M37" s="7">
         <v>5</v>
@@ -3538,13 +3538,13 @@
         <v>4792</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,10 +4118,10 @@
         <v>113</v>
       </c>
       <c r="K49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M49" s="7">
         <v>474</v>
@@ -4133,10 +4133,10 @@
         <v>113</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4164,13 @@
         <v>30820</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M50" s="7">
         <v>27</v>
@@ -4179,13 +4179,13 @@
         <v>30820</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4213,13 @@
         <v>92098</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M51" s="7">
         <v>91</v>
@@ -4228,13 +4228,13 @@
         <v>92098</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4288,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4310,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D386B5-74C6-4AC0-8D81-5425EA8C4A05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2289FAFD-D148-404E-B7BC-B5B6618F00D3}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4327,7 +4327,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4447,13 +4447,13 @@
         <v>3968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>104</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4462,13 +4462,13 @@
         <v>3968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>104</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +4502,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4517,7 +4517,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4545,13 @@
         <v>978</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4560,13 +4560,13 @@
         <v>978</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4594,13 @@
         <v>136998</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>133</v>
@@ -4609,13 +4609,13 @@
         <v>136998</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4643,13 @@
         <v>24561</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -4658,13 +4658,13 @@
         <v>24561</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4692,13 @@
         <v>64939</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -4707,13 +4707,13 @@
         <v>64939</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4792,13 @@
         <v>9171</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -4807,13 +4807,13 @@
         <v>9171</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4841,13 @@
         <v>3847</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4856,13 +4856,13 @@
         <v>3847</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +4890,13 @@
         <v>3948</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4905,13 +4905,13 @@
         <v>3948</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4939,13 @@
         <v>341066</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M14" s="7">
         <v>317</v>
@@ -4954,13 +4954,13 @@
         <v>341066</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +4988,13 @@
         <v>59538</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M15" s="7">
         <v>54</v>
@@ -5003,13 +5003,13 @@
         <v>59538</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5037,13 @@
         <v>75719</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -5052,13 +5052,13 @@
         <v>75719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,7 +5083,7 @@
         <v>460</v>
       </c>
       <c r="I17" s="7">
-        <v>493289</v>
+        <v>493288</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>29</v>
@@ -5098,7 +5098,7 @@
         <v>460</v>
       </c>
       <c r="N17" s="7">
-        <v>493289</v>
+        <v>493288</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>29</v>
@@ -5137,13 +5137,13 @@
         <v>12292</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5152,13 +5152,13 @@
         <v>12292</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5186,13 @@
         <v>4533</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5201,13 +5201,13 @@
         <v>4533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5235,13 @@
         <v>6049</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5250,13 +5250,13 @@
         <v>6049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5284,13 @@
         <v>464311</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M21" s="7">
         <v>433</v>
@@ -5299,13 +5299,13 @@
         <v>464311</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5333,13 @@
         <v>50491</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5348,13 +5348,13 @@
         <v>50491</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5382,13 @@
         <v>81186</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -5397,13 +5397,13 @@
         <v>81186</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5482,13 @@
         <v>2119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5497,13 +5497,13 @@
         <v>2119</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5531,13 @@
         <v>3104</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5546,13 +5546,13 @@
         <v>3104</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +5580,13 @@
         <v>12198</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -5595,13 +5595,13 @@
         <v>12198</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +5629,13 @@
         <v>425366</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M28" s="7">
         <v>369</v>
@@ -5644,13 +5644,13 @@
         <v>425366</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5678,13 @@
         <v>13195</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -5693,13 +5693,13 @@
         <v>13195</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5727,13 @@
         <v>81452</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M30" s="7">
         <v>73</v>
@@ -5742,13 +5742,13 @@
         <v>81452</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,10 +5830,10 @@
         <v>79</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -5845,10 +5845,10 @@
         <v>79</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5876,13 @@
         <v>2082</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -5891,13 +5891,13 @@
         <v>2082</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +5925,13 @@
         <v>7638</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -5940,13 +5940,13 @@
         <v>7638</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +5974,13 @@
         <v>305800</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M35" s="7">
         <v>275</v>
@@ -5989,13 +5989,13 @@
         <v>305800</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6023,13 @@
         <v>6515</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -6038,13 +6038,13 @@
         <v>6515</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6072,13 @@
         <v>60070</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M37" s="7">
         <v>56</v>
@@ -6087,13 +6087,13 @@
         <v>60070</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6172,13 @@
         <v>7141</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -6187,13 +6187,13 @@
         <v>7141</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>205</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6221,13 @@
         <v>11530</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M40" s="7">
         <v>11</v>
@@ -6236,13 +6236,13 @@
         <v>11530</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6270,13 @@
         <v>12158</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M41" s="7">
         <v>12</v>
@@ -6285,13 +6285,13 @@
         <v>12158</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6319,13 @@
         <v>302184</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="M42" s="7">
         <v>283</v>
@@ -6334,13 +6334,13 @@
         <v>302184</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,13 +6368,13 @@
         <v>7386</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -6383,13 +6383,13 @@
         <v>7386</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6417,13 @@
         <v>127695</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M44" s="7">
         <v>120</v>
@@ -6432,13 +6432,13 @@
         <v>127695</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6517,13 @@
         <v>43730</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M46" s="7">
         <v>41</v>
@@ -6532,13 +6532,13 @@
         <v>43730</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6566,13 @@
         <v>25095</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="M47" s="7">
         <v>24</v>
@@ -6581,13 +6581,13 @@
         <v>25095</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6615,13 @@
         <v>42969</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M48" s="7">
         <v>39</v>
@@ -6630,13 +6630,13 @@
         <v>42969</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6664,13 +6664,13 @@
         <v>1975725</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="M49" s="7">
         <v>1810</v>
@@ -6679,13 +6679,13 @@
         <v>1975725</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,13 +6713,13 @@
         <v>161686</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M50" s="7">
         <v>150</v>
@@ -6728,13 +6728,13 @@
         <v>161686</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6762,13 +6762,13 @@
         <v>491062</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M51" s="7">
         <v>460</v>
@@ -6777,13 +6777,13 @@
         <v>491062</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,7 +6837,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6859,7 +6859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8BFFBB-E066-4B37-94D8-AB4DEA223E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE87253-094A-4940-8AFC-F2451D8B50F6}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6876,7 +6876,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6996,13 +6996,13 @@
         <v>11017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -7011,13 +7011,13 @@
         <v>11017</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,7 +7051,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7066,7 +7066,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7094,13 @@
         <v>2808</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -7109,13 +7109,13 @@
         <v>2808</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7143,13 @@
         <v>139445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -7158,13 +7158,13 @@
         <v>139445</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +7192,13 @@
         <v>25179</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -7207,13 +7207,13 @@
         <v>25179</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7241,13 @@
         <v>39242</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -7256,13 +7256,13 @@
         <v>39242</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +7341,13 @@
         <v>16525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -7356,13 +7356,13 @@
         <v>16525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,13 +7390,13 @@
         <v>5767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7405,13 +7405,13 @@
         <v>5767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +7439,13 @@
         <v>2689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7454,13 +7454,13 @@
         <v>2689</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7488,13 @@
         <v>348940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
@@ -7503,13 +7503,13 @@
         <v>348940</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +7537,13 @@
         <v>46352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -7552,13 +7552,13 @@
         <v>46352</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +7586,13 @@
         <v>43336</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -7601,13 +7601,13 @@
         <v>43336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7686,13 @@
         <v>15357</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -7701,13 +7701,13 @@
         <v>15357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,13 +7735,13 @@
         <v>1907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>270</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -7750,13 +7750,13 @@
         <v>1907</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7784,13 @@
         <v>8762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -7799,13 +7799,13 @@
         <v>8762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7833,13 +7833,13 @@
         <v>441638</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M21" s="7">
         <v>445</v>
@@ -7848,13 +7848,13 @@
         <v>441638</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,13 +7882,13 @@
         <v>44514</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -7897,13 +7897,13 @@
         <v>44514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7931,13 @@
         <v>74659</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
@@ -7946,13 +7946,13 @@
         <v>74659</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,13 +8031,13 @@
         <v>5723</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -8046,13 +8046,13 @@
         <v>5723</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>188</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8080,13 @@
         <v>3102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8095,13 +8095,13 @@
         <v>3102</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8129,13 @@
         <v>15975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -8144,13 +8144,13 @@
         <v>15975</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8178,13 @@
         <v>462093</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M28" s="7">
         <v>426</v>
@@ -8193,13 +8193,13 @@
         <v>462093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,13 +8227,13 @@
         <v>12460</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8242,13 +8242,13 @@
         <v>12460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8276,13 @@
         <v>74888</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="M30" s="7">
         <v>71</v>
@@ -8291,13 +8291,13 @@
         <v>74888</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,13 +8376,13 @@
         <v>9507</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -8391,13 +8391,13 @@
         <v>9507</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>298</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,13 +8425,13 @@
         <v>3199</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -8440,13 +8440,13 @@
         <v>3199</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8474,13 +8474,13 @@
         <v>25299</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -8489,13 +8489,13 @@
         <v>25299</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8523,13 +8523,13 @@
         <v>327026</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M35" s="7">
         <v>283</v>
@@ -8538,13 +8538,13 @@
         <v>327026</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,13 +8572,13 @@
         <v>10791</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -8587,13 +8587,13 @@
         <v>10791</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>309</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +8621,13 @@
         <v>60982</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="M37" s="7">
         <v>54</v>
@@ -8636,13 +8636,13 @@
         <v>60982</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8721,13 +8721,13 @@
         <v>12179</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>315</v>
+        <v>108</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>316</v>
+        <v>177</v>
       </c>
       <c r="M39" s="7">
         <v>10</v>
@@ -8736,13 +8736,13 @@
         <v>12179</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>315</v>
+        <v>108</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>316</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,13 +8770,13 @@
         <v>1106</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -8785,13 +8785,13 @@
         <v>1106</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8819,13 +8819,13 @@
         <v>33243</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M41" s="7">
         <v>29</v>
@@ -8834,13 +8834,13 @@
         <v>33243</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8868,13 +8868,13 @@
         <v>360626</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M42" s="7">
         <v>305</v>
@@ -8883,13 +8883,13 @@
         <v>360626</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8917,13 @@
         <v>7839</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M43" s="7">
         <v>7</v>
@@ -8932,13 +8932,13 @@
         <v>7839</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>62</v>
+        <v>316</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8966,13 +8966,13 @@
         <v>86278</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M44" s="7">
         <v>76</v>
@@ -8981,13 +8981,13 @@
         <v>86278</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9066,13 +9066,13 @@
         <v>70309</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M46" s="7">
         <v>67</v>
@@ -9081,13 +9081,13 @@
         <v>70309</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9115,13 +9115,13 @@
         <v>15082</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>223</v>
+        <v>323</v>
       </c>
       <c r="M47" s="7">
         <v>15</v>
@@ -9130,13 +9130,13 @@
         <v>15082</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>223</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9167,10 +9167,10 @@
         <v>324</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M48" s="7">
         <v>81</v>
@@ -9182,10 +9182,10 @@
         <v>324</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9213,13 +9213,13 @@
         <v>2079768</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M49" s="7">
         <v>1956</v>
@@ -9228,13 +9228,13 @@
         <v>2079768</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9262,13 +9262,13 @@
         <v>147136</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>167</v>
+        <v>332</v>
       </c>
       <c r="M50" s="7">
         <v>146</v>
@@ -9277,13 +9277,13 @@
         <v>147136</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>167</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9311,13 +9311,13 @@
         <v>379385</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M51" s="7">
         <v>362</v>
@@ -9326,13 +9326,13 @@
         <v>379385</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9386,7 +9386,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -9408,7 +9408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C191CDD-831A-4B7A-93B6-B5A2AF18D74B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D3ED56-0A67-4F27-AEB5-30B4AAAC0F70}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9425,7 +9425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9545,13 +9545,13 @@
         <v>16581</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -9560,13 +9560,13 @@
         <v>16581</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9600,7 +9600,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9615,7 +9615,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9649,7 +9649,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9692,13 +9692,13 @@
         <v>51380</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
@@ -9707,13 +9707,13 @@
         <v>51380</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9741,13 +9741,13 @@
         <v>5561</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -9756,13 +9756,13 @@
         <v>5561</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9790,13 +9790,13 @@
         <v>30053</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -9805,13 +9805,13 @@
         <v>30053</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9890,13 +9890,13 @@
         <v>14767</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -9905,13 +9905,13 @@
         <v>14767</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9939,13 +9939,13 @@
         <v>2531</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>358</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -9954,13 +9954,13 @@
         <v>2531</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>358</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9994,7 +9994,7 @@
         <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -10009,7 +10009,7 @@
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10037,13 +10037,13 @@
         <v>180118</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>159</v>
@@ -10052,13 +10052,13 @@
         <v>180118</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10086,13 +10086,13 @@
         <v>17606</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M15" s="7">
         <v>16</v>
@@ -10101,13 +10101,13 @@
         <v>17606</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10135,13 +10135,13 @@
         <v>33074</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>365</v>
+        <v>258</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -10150,13 +10150,13 @@
         <v>33074</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10235,13 +10235,13 @@
         <v>25309</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -10250,13 +10250,13 @@
         <v>25309</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10284,13 +10284,13 @@
         <v>1835</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>372</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -10299,13 +10299,13 @@
         <v>1835</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>372</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10333,13 +10333,13 @@
         <v>1960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -10348,13 +10348,13 @@
         <v>1960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>218</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10382,13 +10382,13 @@
         <v>228405</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M21" s="7">
         <v>338</v>
@@ -10397,13 +10397,13 @@
         <v>228405</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10431,13 +10431,13 @@
         <v>22205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -10446,13 +10446,13 @@
         <v>22205</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10480,13 +10480,13 @@
         <v>46419</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
@@ -10495,13 +10495,13 @@
         <v>46419</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10580,13 +10580,13 @@
         <v>22226</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
@@ -10595,13 +10595,13 @@
         <v>22226</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10629,13 +10629,13 @@
         <v>3255</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>380</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -10644,13 +10644,13 @@
         <v>3255</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10678,13 +10678,13 @@
         <v>8575</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>111</v>
+        <v>383</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
@@ -10693,13 +10693,13 @@
         <v>8575</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>143</v>
+        <v>381</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>111</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10727,13 +10727,13 @@
         <v>336408</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="M28" s="7">
         <v>537</v>
@@ -10742,13 +10742,13 @@
         <v>336408</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10776,13 +10776,13 @@
         <v>10663</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -10791,13 +10791,13 @@
         <v>10663</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10825,13 +10825,13 @@
         <v>82668</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
@@ -10840,13 +10840,13 @@
         <v>82668</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10925,13 +10925,13 @@
         <v>21875</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>249</v>
+        <v>393</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
@@ -10940,13 +10940,13 @@
         <v>21875</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>398</v>
+        <v>297</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>249</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10974,13 +10974,13 @@
         <v>3427</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>401</v>
+        <v>295</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
@@ -10989,13 +10989,13 @@
         <v>3427</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>401</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11023,13 +11023,13 @@
         <v>13348</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>176</v>
+        <v>397</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -11038,13 +11038,13 @@
         <v>13348</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>176</v>
+        <v>397</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11072,13 +11072,13 @@
         <v>283534</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M35" s="7">
         <v>490</v>
@@ -11087,13 +11087,13 @@
         <v>283534</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11121,13 +11121,13 @@
         <v>3622</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>222</v>
+        <v>403</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -11136,13 +11136,13 @@
         <v>3622</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11170,13 +11170,13 @@
         <v>63014</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>169</v>
+        <v>405</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
@@ -11185,13 +11185,13 @@
         <v>63014</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>169</v>
+        <v>405</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11270,13 +11270,13 @@
         <v>29546</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M39" s="7">
         <v>50</v>
@@ -11285,13 +11285,13 @@
         <v>29546</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11319,13 +11319,13 @@
         <v>1820</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>144</v>
+        <v>394</v>
       </c>
       <c r="M40" s="7">
         <v>3</v>
@@ -11334,13 +11334,13 @@
         <v>1820</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>144</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11368,13 +11368,13 @@
         <v>50499</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M41" s="7">
         <v>88</v>
@@ -11383,13 +11383,13 @@
         <v>50499</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11417,13 +11417,13 @@
         <v>396552</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="M42" s="7">
         <v>760</v>
@@ -11432,13 +11432,13 @@
         <v>396552</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11466,13 +11466,13 @@
         <v>5034</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>419</v>
+        <v>126</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M43" s="7">
         <v>9</v>
@@ -11481,13 +11481,13 @@
         <v>5034</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>419</v>
+        <v>126</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11515,13 +11515,13 @@
         <v>84887</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="M44" s="7">
         <v>150</v>
@@ -11530,13 +11530,13 @@
         <v>84887</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11615,13 +11615,13 @@
         <v>130305</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M46" s="7">
         <v>164</v>
@@ -11630,13 +11630,13 @@
         <v>130305</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11664,13 +11664,13 @@
         <v>12868</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>161</v>
+        <v>426</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -11679,13 +11679,13 @@
         <v>12868</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>161</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11713,13 +11713,13 @@
         <v>74381</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M48" s="7">
         <v>126</v>
@@ -11728,13 +11728,13 @@
         <v>74381</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="P48" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11811,13 +11811,13 @@
         <v>64691</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>205</v>
+        <v>433</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>434</v>
+        <v>124</v>
       </c>
       <c r="M50" s="7">
         <v>76</v>
@@ -11826,13 +11826,13 @@
         <v>64691</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>205</v>
+        <v>433</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>434</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11860,7 +11860,7 @@
         <v>340115</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>435</v>
@@ -11875,7 +11875,7 @@
         <v>340115</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P51" s="7" t="s">
         <v>435</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51E02964-FF99-45B3-82E2-2A31ED833A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{018C6A5A-24AD-4987-9A00-30CDAE26D70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{92427F8F-8765-4537-BAF6-CA06512E6CB9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E3DA2D80-E821-48C5-93B5-18DCBE986CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2352" uniqueCount="490">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Otro motivo</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,45%</t>
@@ -176,7 +176,7 @@
     <t>18,94%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,09%</t>
@@ -224,7 +224,7 @@
     <t>20,83%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,69%</t>
@@ -275,7 +275,7 @@
     <t>18,7%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>2,31%</t>
@@ -311,189 +311,228 @@
     <t>2,25%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
     <t>18,48%</t>
   </si>
   <si>
@@ -641,715 +680,835 @@
     <t>19,5%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>2,6%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>1,1%</t>
   </si>
   <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>49,29%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
     <t>6,63%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>3,36%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>4,55%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
 </sst>
 </file>
@@ -1761,8 +1920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653052DC-C5E6-4F79-9174-183F8DF50FEA}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592FFA00-8055-464C-8245-4C7BBD384A93}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3666,34 +3825,34 @@
         <v>11</v>
       </c>
       <c r="H40" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>2914</v>
+        <v>1768</v>
       </c>
       <c r="J40" s="7" t="s">
         <v>92</v>
       </c>
       <c r="K40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L40" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="M40" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N40" s="7">
-        <v>2914</v>
+        <v>1768</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>92</v>
       </c>
       <c r="P40" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,34 +3874,34 @@
         <v>11</v>
       </c>
       <c r="H41" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I41" s="7">
-        <v>8618</v>
+        <v>7416</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="M41" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N41" s="7">
-        <v>8618</v>
+        <v>7416</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,34 +3923,34 @@
         <v>11</v>
       </c>
       <c r="H42" s="7">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I42" s="7">
-        <v>40750</v>
+        <v>30382</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="M42" s="7">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N42" s="7">
-        <v>40750</v>
+        <v>30382</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,34 +4021,34 @@
         <v>11</v>
       </c>
       <c r="H44" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I44" s="7">
-        <v>14739</v>
+        <v>10256</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="M44" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N44" s="7">
-        <v>14739</v>
+        <v>10256</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,10 +4070,10 @@
         <v>11</v>
       </c>
       <c r="H45" s="7">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="I45" s="7">
-        <v>67021</v>
+        <v>49823</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>29</v>
@@ -3926,10 +4085,10 @@
         <v>29</v>
       </c>
       <c r="M45" s="7">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="N45" s="7">
-        <v>67021</v>
+        <v>49823</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>29</v>
@@ -3943,7 +4102,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3962,34 +4121,34 @@
         <v>11</v>
       </c>
       <c r="H46" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" s="7">
-        <v>2823</v>
+        <v>0</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="M46" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N46" s="7">
-        <v>2823</v>
+        <v>0</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,34 +4170,34 @@
         <v>11</v>
       </c>
       <c r="H47" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I47" s="7">
-        <v>13836</v>
+        <v>1146</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M47" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N47" s="7">
-        <v>13836</v>
+        <v>1146</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,34 +4219,34 @@
         <v>11</v>
       </c>
       <c r="H48" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="I48" s="7">
-        <v>30624</v>
+        <v>1201</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M48" s="7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="N48" s="7">
-        <v>30624</v>
+        <v>1201</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,34 +4268,34 @@
         <v>11</v>
       </c>
       <c r="H49" s="7">
-        <v>474</v>
+        <v>10</v>
       </c>
       <c r="I49" s="7">
-        <v>484313</v>
+        <v>10367</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M49" s="7">
-        <v>474</v>
+        <v>10</v>
       </c>
       <c r="N49" s="7">
-        <v>484313</v>
+        <v>10367</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,34 +4317,34 @@
         <v>11</v>
       </c>
       <c r="H50" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>30820</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="M50" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>30820</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,34 +4366,34 @@
         <v>11</v>
       </c>
       <c r="H51" s="7">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="I51" s="7">
-        <v>92098</v>
+        <v>4483</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M51" s="7">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="N51" s="7">
-        <v>92098</v>
+        <v>4483</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,48 +4415,394 @@
         <v>11</v>
       </c>
       <c r="H52" s="7">
+        <v>16</v>
+      </c>
+      <c r="I52" s="7">
+        <v>17198</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="7">
+        <v>16</v>
+      </c>
+      <c r="N52" s="7">
+        <v>17198</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="7">
+        <v>3</v>
+      </c>
+      <c r="I53" s="7">
+        <v>2823</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M53" s="7">
+        <v>3</v>
+      </c>
+      <c r="N53" s="7">
+        <v>2823</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7">
+        <v>14</v>
+      </c>
+      <c r="I54" s="7">
+        <v>13836</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M54" s="7">
+        <v>14</v>
+      </c>
+      <c r="N54" s="7">
+        <v>13836</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="7">
+        <v>31</v>
+      </c>
+      <c r="I55" s="7">
+        <v>30624</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M55" s="7">
+        <v>31</v>
+      </c>
+      <c r="N55" s="7">
+        <v>30624</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="7">
+        <v>474</v>
+      </c>
+      <c r="I56" s="7">
+        <v>484313</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M56" s="7">
+        <v>474</v>
+      </c>
+      <c r="N56" s="7">
+        <v>484313</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="7">
+        <v>27</v>
+      </c>
+      <c r="I57" s="7">
+        <v>30820</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M57" s="7">
+        <v>27</v>
+      </c>
+      <c r="N57" s="7">
+        <v>30820</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="7">
+        <v>91</v>
+      </c>
+      <c r="I58" s="7">
+        <v>92098</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M58" s="7">
+        <v>91</v>
+      </c>
+      <c r="N58" s="7">
+        <v>92098</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="7">
         <v>640</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I59" s="7">
         <v>654513</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="J59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="7">
         <v>640</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N59" s="7">
         <v>654513</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>121</v>
+      <c r="O59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4310,8 +4815,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2289FAFD-D148-404E-B7BC-B5B6618F00D3}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDD48F7-68BE-4662-9951-B8F035108BCE}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4327,7 +4832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4447,13 +4952,13 @@
         <v>3968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -4462,13 +4967,13 @@
         <v>3968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,7 +5007,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4517,7 +5022,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +5050,13 @@
         <v>978</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4560,13 +5065,13 @@
         <v>978</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +5099,13 @@
         <v>136998</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>133</v>
@@ -4609,13 +5114,13 @@
         <v>136998</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +5148,13 @@
         <v>24561</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -4658,13 +5163,13 @@
         <v>24561</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +5197,13 @@
         <v>64939</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="M9" s="7">
         <v>61</v>
@@ -4707,13 +5212,13 @@
         <v>64939</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +5297,13 @@
         <v>9171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -4807,13 +5312,13 @@
         <v>9171</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +5346,13 @@
         <v>3847</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -4856,13 +5361,13 @@
         <v>3847</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4890,13 +5395,13 @@
         <v>3948</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4905,13 +5410,13 @@
         <v>3948</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +5444,13 @@
         <v>341066</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M14" s="7">
         <v>317</v>
@@ -4954,13 +5459,13 @@
         <v>341066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4988,13 +5493,13 @@
         <v>59538</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M15" s="7">
         <v>54</v>
@@ -5003,13 +5508,13 @@
         <v>59538</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5542,13 @@
         <v>75719</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -5052,13 +5557,13 @@
         <v>75719</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,7 +5588,7 @@
         <v>460</v>
       </c>
       <c r="I17" s="7">
-        <v>493288</v>
+        <v>493289</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>29</v>
@@ -5098,7 +5603,7 @@
         <v>460</v>
       </c>
       <c r="N17" s="7">
-        <v>493288</v>
+        <v>493289</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>29</v>
@@ -5137,13 +5642,13 @@
         <v>12292</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -5152,13 +5657,13 @@
         <v>12292</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5691,13 @@
         <v>4533</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5201,13 +5706,13 @@
         <v>4533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5740,13 @@
         <v>6049</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -5250,13 +5755,13 @@
         <v>6049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5789,13 @@
         <v>464311</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="M21" s="7">
         <v>433</v>
@@ -5299,13 +5804,13 @@
         <v>464311</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5838,13 @@
         <v>50491</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5348,13 +5853,13 @@
         <v>50491</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5887,13 @@
         <v>81186</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M23" s="7">
         <v>78</v>
@@ -5397,13 +5902,13 @@
         <v>81186</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5987,13 @@
         <v>2119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -5497,13 +6002,13 @@
         <v>2119</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +6036,13 @@
         <v>3104</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5546,13 +6051,13 @@
         <v>3104</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,13 +6085,13 @@
         <v>12198</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>9</v>
@@ -5595,13 +6100,13 @@
         <v>12198</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5629,13 +6134,13 @@
         <v>425366</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>369</v>
@@ -5644,13 +6149,13 @@
         <v>425366</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +6183,13 @@
         <v>13195</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -5693,13 +6198,13 @@
         <v>13195</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +6232,13 @@
         <v>81452</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>73</v>
@@ -5742,13 +6247,13 @@
         <v>81452</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,10 +6335,10 @@
         <v>79</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -5845,10 +6350,10 @@
         <v>79</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +6381,13 @@
         <v>2082</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -5891,13 +6396,13 @@
         <v>2082</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5925,13 +6430,13 @@
         <v>7638</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -5940,13 +6445,13 @@
         <v>7638</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +6479,13 @@
         <v>305800</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7">
         <v>275</v>
@@ -5989,13 +6494,13 @@
         <v>305800</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6528,13 @@
         <v>6515</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -6038,13 +6543,13 @@
         <v>6515</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6577,13 @@
         <v>60070</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="M37" s="7">
         <v>56</v>
@@ -6087,13 +6592,13 @@
         <v>60070</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,34 +6671,34 @@
         <v>11</v>
       </c>
       <c r="H39" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I39" s="7">
-        <v>7141</v>
+        <v>4972</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="M39" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N39" s="7">
-        <v>7141</v>
+        <v>4972</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,34 +6720,34 @@
         <v>11</v>
       </c>
       <c r="H40" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I40" s="7">
-        <v>11530</v>
+        <v>3674</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="M40" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N40" s="7">
-        <v>11530</v>
+        <v>3674</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,34 +6769,34 @@
         <v>11</v>
       </c>
       <c r="H41" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I41" s="7">
-        <v>12158</v>
+        <v>6849</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="M41" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N41" s="7">
-        <v>12158</v>
+        <v>6849</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,34 +6818,34 @@
         <v>11</v>
       </c>
       <c r="H42" s="7">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="I42" s="7">
-        <v>302184</v>
+        <v>182004</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="M42" s="7">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="N42" s="7">
-        <v>302184</v>
+        <v>182004</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,34 +6867,34 @@
         <v>11</v>
       </c>
       <c r="H43" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I43" s="7">
-        <v>7386</v>
+        <v>4046</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
       <c r="M43" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N43" s="7">
-        <v>7386</v>
+        <v>4046</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>211</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,34 +6916,34 @@
         <v>11</v>
       </c>
       <c r="H44" s="7">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="I44" s="7">
-        <v>127695</v>
+        <v>55919</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="M44" s="7">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="N44" s="7">
-        <v>127695</v>
+        <v>55919</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,10 +6965,10 @@
         <v>11</v>
       </c>
       <c r="H45" s="7">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="I45" s="7">
-        <v>468094</v>
+        <v>257463</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>29</v>
@@ -6475,10 +6980,10 @@
         <v>29</v>
       </c>
       <c r="M45" s="7">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="N45" s="7">
-        <v>468094</v>
+        <v>257463</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>29</v>
@@ -6492,7 +6997,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -6511,34 +7016,34 @@
         <v>11</v>
       </c>
       <c r="H46" s="7">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="I46" s="7">
-        <v>43730</v>
+        <v>2169</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="M46" s="7">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="N46" s="7">
-        <v>43730</v>
+        <v>2169</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,34 +7065,34 @@
         <v>11</v>
       </c>
       <c r="H47" s="7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="I47" s="7">
-        <v>25095</v>
+        <v>7857</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="M47" s="7">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="N47" s="7">
-        <v>25095</v>
+        <v>7857</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,34 +7114,34 @@
         <v>11</v>
       </c>
       <c r="H48" s="7">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="I48" s="7">
-        <v>42969</v>
+        <v>5309</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="M48" s="7">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="N48" s="7">
-        <v>42969</v>
+        <v>5309</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,34 +7163,34 @@
         <v>11</v>
       </c>
       <c r="H49" s="7">
-        <v>1810</v>
+        <v>108</v>
       </c>
       <c r="I49" s="7">
-        <v>1975725</v>
+        <v>120179</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="M49" s="7">
-        <v>1810</v>
+        <v>108</v>
       </c>
       <c r="N49" s="7">
-        <v>1975725</v>
+        <v>120179</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6707,34 +7212,34 @@
         <v>11</v>
       </c>
       <c r="H50" s="7">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="I50" s="7">
-        <v>161686</v>
+        <v>3340</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="M50" s="7">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="N50" s="7">
-        <v>161686</v>
+        <v>3340</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,34 +7261,34 @@
         <v>11</v>
       </c>
       <c r="H51" s="7">
-        <v>460</v>
+        <v>65</v>
       </c>
       <c r="I51" s="7">
-        <v>491062</v>
+        <v>71776</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="M51" s="7">
-        <v>460</v>
+        <v>65</v>
       </c>
       <c r="N51" s="7">
-        <v>491062</v>
+        <v>71776</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,48 +7310,394 @@
         <v>11</v>
       </c>
       <c r="H52" s="7">
+        <v>190</v>
+      </c>
+      <c r="I52" s="7">
+        <v>210630</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="7">
+        <v>190</v>
+      </c>
+      <c r="N52" s="7">
+        <v>210630</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="7">
+        <v>41</v>
+      </c>
+      <c r="I53" s="7">
+        <v>43730</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="M53" s="7">
+        <v>41</v>
+      </c>
+      <c r="N53" s="7">
+        <v>43730</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7">
+        <v>24</v>
+      </c>
+      <c r="I54" s="7">
+        <v>25095</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M54" s="7">
+        <v>24</v>
+      </c>
+      <c r="N54" s="7">
+        <v>25095</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="7">
+        <v>39</v>
+      </c>
+      <c r="I55" s="7">
+        <v>42969</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M55" s="7">
+        <v>39</v>
+      </c>
+      <c r="N55" s="7">
+        <v>42969</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1810</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1975725</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M56" s="7">
+        <v>1810</v>
+      </c>
+      <c r="N56" s="7">
+        <v>1975725</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="7">
+        <v>150</v>
+      </c>
+      <c r="I57" s="7">
+        <v>161686</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M57" s="7">
+        <v>150</v>
+      </c>
+      <c r="N57" s="7">
+        <v>161686</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="7">
+        <v>460</v>
+      </c>
+      <c r="I58" s="7">
+        <v>491062</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M58" s="7">
+        <v>460</v>
+      </c>
+      <c r="N58" s="7">
+        <v>491062</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="7">
         <v>2524</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I59" s="7">
         <v>2740267</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="J59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="7">
         <v>2524</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N59" s="7">
         <v>2740267</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>121</v>
+      <c r="O59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6859,8 +7710,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE87253-094A-4940-8AFC-F2451D8B50F6}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C62BBBA-B254-4CFF-9A48-96D3A96E359E}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6876,7 +7727,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6996,13 +7847,13 @@
         <v>11017</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -7011,13 +7862,13 @@
         <v>11017</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,7 +7902,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -7066,7 +7917,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7945,13 @@
         <v>2808</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -7109,13 +7960,13 @@
         <v>2808</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7994,13 @@
         <v>139445</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="M7" s="7">
         <v>141</v>
@@ -7158,13 +8009,13 @@
         <v>139445</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7192,13 +8043,13 @@
         <v>25179</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -7207,13 +8058,13 @@
         <v>25179</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +8092,13 @@
         <v>39242</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -7256,13 +8107,13 @@
         <v>39242</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7341,13 +8192,13 @@
         <v>16525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -7356,13 +8207,13 @@
         <v>16525</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,13 +8241,13 @@
         <v>5767</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7405,13 +8256,13 @@
         <v>5767</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,13 +8290,13 @@
         <v>2689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7454,13 +8305,13 @@
         <v>2689</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +8339,13 @@
         <v>348940</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>356</v>
@@ -7503,13 +8354,13 @@
         <v>348940</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,13 +8388,13 @@
         <v>46352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="M15" s="7">
         <v>49</v>
@@ -7552,13 +8403,13 @@
         <v>46352</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7586,13 +8437,13 @@
         <v>43336</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -7601,13 +8452,13 @@
         <v>43336</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +8537,13 @@
         <v>15357</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>15</v>
@@ -7701,13 +8552,13 @@
         <v>15357</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,7 +8586,7 @@
         <v>1907</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
@@ -7750,7 +8601,7 @@
         <v>1907</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
@@ -7784,10 +8635,10 @@
         <v>8762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>64</v>
@@ -7799,10 +8650,10 @@
         <v>8762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>64</v>
@@ -7830,31 +8681,31 @@
         <v>445</v>
       </c>
       <c r="I21" s="7">
-        <v>441638</v>
+        <v>441639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M21" s="7">
         <v>445</v>
       </c>
       <c r="N21" s="7">
-        <v>441638</v>
+        <v>441639</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7882,13 +8733,13 @@
         <v>44514</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
@@ -7897,13 +8748,13 @@
         <v>44514</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,31 +8779,31 @@
         <v>77</v>
       </c>
       <c r="I23" s="7">
-        <v>74659</v>
+        <v>74660</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M23" s="7">
         <v>77</v>
       </c>
       <c r="N23" s="7">
-        <v>74659</v>
+        <v>74660</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7977,7 +8828,7 @@
         <v>591</v>
       </c>
       <c r="I24" s="7">
-        <v>586838</v>
+        <v>586839</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>29</v>
@@ -7992,7 +8843,7 @@
         <v>591</v>
       </c>
       <c r="N24" s="7">
-        <v>586838</v>
+        <v>586839</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>29</v>
@@ -8031,13 +8882,13 @@
         <v>5723</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -8046,13 +8897,13 @@
         <v>5723</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8080,13 +8931,13 @@
         <v>3102</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -8095,13 +8946,13 @@
         <v>3102</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8980,13 @@
         <v>15975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -8144,13 +8995,13 @@
         <v>15975</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +9029,13 @@
         <v>462093</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>426</v>
@@ -8193,13 +9044,13 @@
         <v>462093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,13 +9078,13 @@
         <v>12460</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -8242,13 +9093,13 @@
         <v>12460</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +9127,13 @@
         <v>74888</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="M30" s="7">
         <v>71</v>
@@ -8291,13 +9142,13 @@
         <v>74888</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,13 +9227,13 @@
         <v>9507</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="M32" s="7">
         <v>8</v>
@@ -8391,13 +9242,13 @@
         <v>9507</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,13 +9276,13 @@
         <v>3199</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="M33" s="7">
         <v>3</v>
@@ -8440,13 +9291,13 @@
         <v>3199</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8474,13 +9325,13 @@
         <v>25299</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -8489,13 +9340,13 @@
         <v>25299</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8523,13 +9374,13 @@
         <v>327026</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="M35" s="7">
         <v>283</v>
@@ -8538,13 +9389,13 @@
         <v>327026</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8572,13 +9423,13 @@
         <v>10791</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>81</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -8587,13 +9438,13 @@
         <v>10791</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>81</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,13 +9472,13 @@
         <v>60982</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="M37" s="7">
         <v>54</v>
@@ -8636,13 +9487,13 @@
         <v>60982</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8715,34 +9566,34 @@
         <v>11</v>
       </c>
       <c r="H39" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I39" s="7">
-        <v>12179</v>
+        <v>5089</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>177</v>
+        <v>336</v>
       </c>
       <c r="M39" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N39" s="7">
-        <v>12179</v>
+        <v>5089</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>177</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,13 +9621,13 @@
         <v>1106</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -8785,13 +9636,13 @@
         <v>1106</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -8813,34 +9664,34 @@
         <v>11</v>
       </c>
       <c r="H41" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I41" s="7">
-        <v>33243</v>
+        <v>13387</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="M41" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N41" s="7">
-        <v>33243</v>
+        <v>13387</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -8862,34 +9713,34 @@
         <v>11</v>
       </c>
       <c r="H42" s="7">
-        <v>305</v>
+        <v>199</v>
       </c>
       <c r="I42" s="7">
-        <v>360626</v>
+        <v>215407</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="M42" s="7">
-        <v>305</v>
+        <v>199</v>
       </c>
       <c r="N42" s="7">
-        <v>360626</v>
+        <v>215407</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,34 +9762,34 @@
         <v>11</v>
       </c>
       <c r="H43" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I43" s="7">
-        <v>7839</v>
+        <v>5155</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="M43" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N43" s="7">
-        <v>7839</v>
+        <v>5155</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -8960,34 +9811,34 @@
         <v>11</v>
       </c>
       <c r="H44" s="7">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="I44" s="7">
-        <v>86278</v>
+        <v>40787</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="M44" s="7">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="N44" s="7">
-        <v>86278</v>
+        <v>40787</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9009,10 +9860,10 @@
         <v>11</v>
       </c>
       <c r="H45" s="7">
-        <v>428</v>
+        <v>263</v>
       </c>
       <c r="I45" s="7">
-        <v>501271</v>
+        <v>280932</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>29</v>
@@ -9024,10 +9875,10 @@
         <v>29</v>
       </c>
       <c r="M45" s="7">
-        <v>428</v>
+        <v>263</v>
       </c>
       <c r="N45" s="7">
-        <v>501271</v>
+        <v>280932</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>29</v>
@@ -9041,7 +9892,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -9060,34 +9911,34 @@
         <v>11</v>
       </c>
       <c r="H46" s="7">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="I46" s="7">
-        <v>70309</v>
+        <v>7090</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="M46" s="7">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="N46" s="7">
-        <v>70309</v>
+        <v>7090</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -9109,34 +9960,34 @@
         <v>11</v>
       </c>
       <c r="H47" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I47" s="7">
-        <v>15082</v>
+        <v>0</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>50</v>
       </c>
       <c r="M47" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N47" s="7">
-        <v>15082</v>
+        <v>0</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>264</v>
+        <v>13</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>323</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -9158,34 +10009,34 @@
         <v>11</v>
       </c>
       <c r="H48" s="7">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I48" s="7">
-        <v>88776</v>
+        <v>19856</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="M48" s="7">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="N48" s="7">
-        <v>88776</v>
+        <v>19856</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -9207,34 +10058,34 @@
         <v>11</v>
       </c>
       <c r="H49" s="7">
-        <v>1956</v>
+        <v>106</v>
       </c>
       <c r="I49" s="7">
-        <v>2079768</v>
+        <v>145219</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="M49" s="7">
-        <v>1956</v>
+        <v>106</v>
       </c>
       <c r="N49" s="7">
-        <v>2079768</v>
+        <v>145219</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9256,34 +10107,34 @@
         <v>11</v>
       </c>
       <c r="H50" s="7">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="I50" s="7">
-        <v>147136</v>
+        <v>2684</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="M50" s="7">
-        <v>146</v>
+        <v>2</v>
       </c>
       <c r="N50" s="7">
-        <v>147136</v>
+        <v>2684</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9305,34 +10156,34 @@
         <v>11</v>
       </c>
       <c r="H51" s="7">
+        <v>36</v>
+      </c>
+      <c r="I51" s="7">
+        <v>45491</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="I51" s="7">
-        <v>379385</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="L51" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="M51" s="7">
+        <v>36</v>
+      </c>
+      <c r="N51" s="7">
+        <v>45491</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="N51" s="7">
-        <v>379385</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="Q51" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9354,48 +10205,394 @@
         <v>11</v>
       </c>
       <c r="H52" s="7">
+        <v>165</v>
+      </c>
+      <c r="I52" s="7">
+        <v>220339</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="7">
+        <v>165</v>
+      </c>
+      <c r="N52" s="7">
+        <v>220339</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="7">
+        <v>67</v>
+      </c>
+      <c r="I53" s="7">
+        <v>70309</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M53" s="7">
+        <v>67</v>
+      </c>
+      <c r="N53" s="7">
+        <v>70309</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7">
+        <v>15</v>
+      </c>
+      <c r="I54" s="7">
+        <v>15082</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M54" s="7">
+        <v>15</v>
+      </c>
+      <c r="N54" s="7">
+        <v>15082</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="7">
+        <v>81</v>
+      </c>
+      <c r="I55" s="7">
+        <v>88776</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="M55" s="7">
+        <v>81</v>
+      </c>
+      <c r="N55" s="7">
+        <v>88776</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="7">
+        <v>1956</v>
+      </c>
+      <c r="I56" s="7">
+        <v>2079768</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M56" s="7">
+        <v>1956</v>
+      </c>
+      <c r="N56" s="7">
+        <v>2079768</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="7">
+        <v>146</v>
+      </c>
+      <c r="I57" s="7">
+        <v>147136</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="M57" s="7">
+        <v>146</v>
+      </c>
+      <c r="N57" s="7">
+        <v>147136</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="7">
+        <v>362</v>
+      </c>
+      <c r="I58" s="7">
+        <v>379385</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="M58" s="7">
+        <v>362</v>
+      </c>
+      <c r="N58" s="7">
+        <v>379385</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="7">
         <v>2627</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I59" s="7">
         <v>2780456</v>
       </c>
-      <c r="J52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="J59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="7">
         <v>2627</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N59" s="7">
         <v>2780456</v>
       </c>
-      <c r="O52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>121</v>
+      <c r="O59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -9408,8 +10605,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D3ED56-0A67-4F27-AEB5-30B4AAAC0F70}">
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C37796-462E-4971-B1F2-F3E01566D505}">
+  <dimension ref="A1:Q60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -9425,7 +10622,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9542,31 +10739,31 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>16581</v>
+        <v>15397</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>16581</v>
+        <v>15397</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9600,7 +10797,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -9615,7 +10812,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9649,7 +10846,7 @@
         <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -9664,7 +10861,7 @@
         <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9689,31 +10886,31 @@
         <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>51380</v>
+        <v>45657</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="M7" s="7">
         <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>51380</v>
+        <v>45657</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9738,31 +10935,31 @@
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>5561</v>
+        <v>4471</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>5561</v>
+        <v>4471</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9787,31 +10984,31 @@
         <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>30053</v>
+        <v>27104</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
       </c>
       <c r="N9" s="7">
-        <v>30053</v>
+        <v>27104</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9836,7 +11033,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="7">
-        <v>103575</v>
+        <v>92629</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>29</v>
@@ -9851,7 +11048,7 @@
         <v>60</v>
       </c>
       <c r="N10" s="7">
-        <v>103575</v>
+        <v>92629</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>29</v>
@@ -9887,31 +11084,31 @@
         <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>14767</v>
+        <v>13762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
       </c>
       <c r="N11" s="7">
-        <v>14767</v>
+        <v>13762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9936,31 +11133,31 @@
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2531</v>
+        <v>2351</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>397</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>2531</v>
+        <v>2351</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9994,7 +11191,7 @@
         <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -10009,7 +11206,7 @@
         <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10034,31 +11231,31 @@
         <v>159</v>
       </c>
       <c r="I14" s="7">
-        <v>180118</v>
+        <v>224338</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="M14" s="7">
         <v>159</v>
       </c>
       <c r="N14" s="7">
-        <v>180118</v>
+        <v>224338</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10083,31 +11280,31 @@
         <v>16</v>
       </c>
       <c r="I15" s="7">
-        <v>17606</v>
+        <v>15858</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="M15" s="7">
         <v>16</v>
       </c>
       <c r="N15" s="7">
-        <v>17606</v>
+        <v>15858</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10132,31 +11329,31 @@
         <v>27</v>
       </c>
       <c r="I16" s="7">
-        <v>33074</v>
+        <v>29476</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>258</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
       </c>
       <c r="N16" s="7">
-        <v>33074</v>
+        <v>29476</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>258</v>
+        <v>404</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10181,7 +11378,7 @@
         <v>220</v>
       </c>
       <c r="I17" s="7">
-        <v>248096</v>
+        <v>285785</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>29</v>
@@ -10196,7 +11393,7 @@
         <v>220</v>
       </c>
       <c r="N17" s="7">
-        <v>248096</v>
+        <v>285785</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>29</v>
@@ -10232,31 +11429,31 @@
         <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>25309</v>
+        <v>23871</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
       </c>
       <c r="N18" s="7">
-        <v>25309</v>
+        <v>23871</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>363</v>
+        <v>408</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>364</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10281,31 +11478,31 @@
         <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>1835</v>
+        <v>1663</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>160</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>1835</v>
+        <v>1663</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10330,31 +11527,31 @@
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1960</v>
+        <v>1860</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>1960</v>
+        <v>1860</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>412</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10379,31 +11576,31 @@
         <v>338</v>
       </c>
       <c r="I21" s="7">
-        <v>228405</v>
+        <v>213246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="M21" s="7">
         <v>338</v>
       </c>
       <c r="N21" s="7">
-        <v>228405</v>
+        <v>213246</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10428,31 +11625,31 @@
         <v>28</v>
       </c>
       <c r="I22" s="7">
-        <v>22205</v>
+        <v>20098</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
       </c>
       <c r="N22" s="7">
-        <v>22205</v>
+        <v>20098</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10477,31 +11674,31 @@
         <v>62</v>
       </c>
       <c r="I23" s="7">
-        <v>46419</v>
+        <v>42365</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
         <v>62</v>
       </c>
       <c r="N23" s="7">
-        <v>46419</v>
+        <v>42365</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10526,7 +11723,7 @@
         <v>468</v>
       </c>
       <c r="I24" s="7">
-        <v>326132</v>
+        <v>303104</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>29</v>
@@ -10541,7 +11738,7 @@
         <v>468</v>
       </c>
       <c r="N24" s="7">
-        <v>326132</v>
+        <v>303104</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>29</v>
@@ -10577,31 +11774,31 @@
         <v>23</v>
       </c>
       <c r="I25" s="7">
-        <v>22226</v>
+        <v>19309</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
       <c r="M25" s="7">
         <v>23</v>
       </c>
       <c r="N25" s="7">
-        <v>22226</v>
+        <v>19309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>377</v>
+        <v>424</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>379</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10626,31 +11823,31 @@
         <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>3255</v>
+        <v>3045</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>3255</v>
+        <v>3045</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>380</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10675,31 +11872,31 @@
         <v>12</v>
       </c>
       <c r="I27" s="7">
-        <v>8575</v>
+        <v>7612</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="M27" s="7">
         <v>12</v>
       </c>
       <c r="N27" s="7">
-        <v>8575</v>
+        <v>7612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10724,31 +11921,31 @@
         <v>537</v>
       </c>
       <c r="I28" s="7">
-        <v>336408</v>
+        <v>312818</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="M28" s="7">
         <v>537</v>
       </c>
       <c r="N28" s="7">
-        <v>336408</v>
+        <v>312818</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10773,31 +11970,31 @@
         <v>15</v>
       </c>
       <c r="I29" s="7">
-        <v>10663</v>
+        <v>9639</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
       </c>
       <c r="N29" s="7">
-        <v>10663</v>
+        <v>9639</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>171</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10822,31 +12019,31 @@
         <v>106</v>
       </c>
       <c r="I30" s="7">
-        <v>82668</v>
+        <v>98740</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="M30" s="7">
         <v>106</v>
       </c>
       <c r="N30" s="7">
-        <v>82668</v>
+        <v>98740</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10871,7 +12068,7 @@
         <v>697</v>
       </c>
       <c r="I31" s="7">
-        <v>463794</v>
+        <v>451162</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>29</v>
@@ -10886,7 +12083,7 @@
         <v>697</v>
       </c>
       <c r="N31" s="7">
-        <v>463794</v>
+        <v>451162</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>29</v>
@@ -10922,31 +12119,31 @@
         <v>32</v>
       </c>
       <c r="I32" s="7">
-        <v>21875</v>
+        <v>20233</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="M32" s="7">
         <v>32</v>
       </c>
       <c r="N32" s="7">
-        <v>21875</v>
+        <v>20233</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10971,31 +12168,31 @@
         <v>5</v>
       </c>
       <c r="I33" s="7">
-        <v>3427</v>
+        <v>3168</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
       </c>
       <c r="N33" s="7">
-        <v>3427</v>
+        <v>3168</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>295</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11020,31 +12217,31 @@
         <v>23</v>
       </c>
       <c r="I34" s="7">
-        <v>13348</v>
+        <v>11920</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
       </c>
       <c r="N34" s="7">
-        <v>13348</v>
+        <v>11920</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11069,31 +12266,31 @@
         <v>490</v>
       </c>
       <c r="I35" s="7">
-        <v>283534</v>
+        <v>261104</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="M35" s="7">
         <v>490</v>
       </c>
       <c r="N35" s="7">
-        <v>283534</v>
+        <v>261104</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11118,31 +12315,31 @@
         <v>5</v>
       </c>
       <c r="I36" s="7">
-        <v>3622</v>
+        <v>3131</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>395</v>
+        <v>172</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>403</v>
+        <v>203</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
       </c>
       <c r="N36" s="7">
-        <v>3622</v>
+        <v>3131</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>395</v>
+        <v>172</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>403</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11167,31 +12364,31 @@
         <v>102</v>
       </c>
       <c r="I37" s="7">
-        <v>63014</v>
+        <v>57530</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="M37" s="7">
         <v>102</v>
       </c>
       <c r="N37" s="7">
-        <v>63014</v>
+        <v>57530</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11216,7 +12413,7 @@
         <v>657</v>
       </c>
       <c r="I38" s="7">
-        <v>388820</v>
+        <v>357086</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>29</v>
@@ -11231,7 +12428,7 @@
         <v>657</v>
       </c>
       <c r="N38" s="7">
-        <v>388820</v>
+        <v>357086</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>29</v>
@@ -11264,34 +12461,34 @@
         <v>11</v>
       </c>
       <c r="H39" s="7">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I39" s="7">
-        <v>29546</v>
+        <v>11314</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="M39" s="7">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="N39" s="7">
-        <v>29546</v>
+        <v>11314</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -11313,34 +12510,34 @@
         <v>11</v>
       </c>
       <c r="H40" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" s="7">
-        <v>1820</v>
+        <v>442</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>264</v>
+        <v>450</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>409</v>
+        <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M40" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>1820</v>
+        <v>442</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>264</v>
+        <v>450</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>409</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11362,34 +12559,34 @@
         <v>11</v>
       </c>
       <c r="H41" s="7">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="I41" s="7">
-        <v>50499</v>
+        <v>20999</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>412</v>
+        <v>302</v>
       </c>
       <c r="M41" s="7">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="N41" s="7">
-        <v>50499</v>
+        <v>20999</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>412</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11411,34 +12608,34 @@
         <v>11</v>
       </c>
       <c r="H42" s="7">
-        <v>760</v>
+        <v>415</v>
       </c>
       <c r="I42" s="7">
-        <v>396552</v>
+        <v>199269</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="L42" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="M42" s="7">
         <v>415</v>
       </c>
-      <c r="M42" s="7">
-        <v>760</v>
-      </c>
       <c r="N42" s="7">
-        <v>396552</v>
+        <v>199269</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11460,34 +12657,34 @@
         <v>11</v>
       </c>
       <c r="H43" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I43" s="7">
-        <v>5034</v>
+        <v>1707</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="M43" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N43" s="7">
-        <v>5034</v>
+        <v>1707</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11509,34 +12706,34 @@
         <v>11</v>
       </c>
       <c r="H44" s="7">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="I44" s="7">
-        <v>84887</v>
+        <v>35890</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
       <c r="M44" s="7">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="N44" s="7">
-        <v>84887</v>
+        <v>35890</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>420</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11558,10 +12755,10 @@
         <v>11</v>
       </c>
       <c r="H45" s="7">
-        <v>1060</v>
+        <v>557</v>
       </c>
       <c r="I45" s="7">
-        <v>568338</v>
+        <v>269620</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>29</v>
@@ -11573,10 +12770,10 @@
         <v>29</v>
       </c>
       <c r="M45" s="7">
-        <v>1060</v>
+        <v>557</v>
       </c>
       <c r="N45" s="7">
-        <v>568338</v>
+        <v>269620</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>29</v>
@@ -11590,7 +12787,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -11609,34 +12806,34 @@
         <v>11</v>
       </c>
       <c r="H46" s="7">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="I46" s="7">
-        <v>130305</v>
+        <v>15795</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
       <c r="M46" s="7">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="N46" s="7">
-        <v>130305</v>
+        <v>15795</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>421</v>
+        <v>460</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>422</v>
+        <v>461</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>423</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -11658,34 +12855,34 @@
         <v>11</v>
       </c>
       <c r="H47" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I47" s="7">
-        <v>12868</v>
+        <v>1157</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="M47" s="7">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N47" s="7">
-        <v>12868</v>
+        <v>1157</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>425</v>
+        <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -11707,34 +12904,34 @@
         <v>11</v>
       </c>
       <c r="H48" s="7">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="I48" s="7">
-        <v>74381</v>
+        <v>22622</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="M48" s="7">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="N48" s="7">
-        <v>74381</v>
+        <v>22622</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -11756,34 +12953,34 @@
         <v>11</v>
       </c>
       <c r="H49" s="7">
-        <v>2316</v>
+        <v>345</v>
       </c>
       <c r="I49" s="7">
-        <v>1476396</v>
+        <v>161508</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="M49" s="7">
-        <v>2316</v>
+        <v>345</v>
       </c>
       <c r="N49" s="7">
-        <v>1476396</v>
+        <v>161508</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -11805,34 +13002,34 @@
         <v>11</v>
       </c>
       <c r="H50" s="7">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="I50" s="7">
-        <v>64691</v>
+        <v>2795</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="M50" s="7">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="N50" s="7">
-        <v>64691</v>
+        <v>2795</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>124</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -11854,34 +13051,34 @@
         <v>11</v>
       </c>
       <c r="H51" s="7">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="I51" s="7">
-        <v>340115</v>
+        <v>39367</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="M51" s="7">
-        <v>463</v>
+        <v>77</v>
       </c>
       <c r="N51" s="7">
-        <v>340115</v>
+        <v>39367</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -11903,48 +13100,394 @@
         <v>11</v>
       </c>
       <c r="H52" s="7">
+        <v>503</v>
+      </c>
+      <c r="I52" s="7">
+        <v>243244</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" s="7">
+        <v>503</v>
+      </c>
+      <c r="N52" s="7">
+        <v>243244</v>
+      </c>
+      <c r="O52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="7">
+        <v>0</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="7">
+        <v>164</v>
+      </c>
+      <c r="I53" s="7">
+        <v>119680</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="M53" s="7">
+        <v>164</v>
+      </c>
+      <c r="N53" s="7">
+        <v>119680</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="7">
+        <v>0</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7">
+        <v>17</v>
+      </c>
+      <c r="I54" s="7">
+        <v>11827</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M54" s="7">
+        <v>17</v>
+      </c>
+      <c r="N54" s="7">
+        <v>11827</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P54" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="7">
+        <v>126</v>
+      </c>
+      <c r="I55" s="7">
+        <v>65013</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="M55" s="7">
+        <v>126</v>
+      </c>
+      <c r="N55" s="7">
+        <v>65013</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="7">
+        <v>0</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="7">
+        <v>2316</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1417941</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M56" s="7">
+        <v>2316</v>
+      </c>
+      <c r="N56" s="7">
+        <v>1417941</v>
+      </c>
+      <c r="O56" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="7">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="7">
+        <v>76</v>
+      </c>
+      <c r="I57" s="7">
+        <v>57698</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="M57" s="7">
+        <v>76</v>
+      </c>
+      <c r="N57" s="7">
+        <v>57698</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="7">
+        <v>0</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="7">
+        <v>463</v>
+      </c>
+      <c r="I58" s="7">
+        <v>330472</v>
+      </c>
+      <c r="J58" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="M58" s="7">
+        <v>463</v>
+      </c>
+      <c r="N58" s="7">
+        <v>330472</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q58" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="7">
         <v>3162</v>
       </c>
-      <c r="I52" s="7">
-        <v>2098756</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M52" s="7">
+      <c r="I59" s="7">
+        <v>2002631</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="7">
         <v>3162</v>
       </c>
-      <c r="N52" s="7">
-        <v>2098756</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>121</v>
+      <c r="N59" s="7">
+        <v>2002631</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A53:A59"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
